--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Sediment_Coast_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Sediment_Coast_mass_flows.xlsx
@@ -539,16 +539,16 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4.013337175430586E-05</v>
+        <v>1.359819209298532E-07</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.501289348656699E-05</v>
+        <v>8.474995136565549E-08</v>
       </c>
       <c r="F7">
-        <v>6.753481241373087E-06</v>
+        <v>2.288248686872698E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -639,16 +639,16 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5.761428895871679E-09</v>
+        <v>1.818922729881697E-11</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.795388737645824E-09</v>
+        <v>5.668165732666766E-12</v>
       </c>
       <c r="F12">
-        <v>4.847549591643726E-10</v>
+        <v>1.530404747820027E-12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -659,16 +659,16 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>1.599187638362131E-11</v>
+        <v>4.344442834704302E-12</v>
       </c>
       <c r="D13">
-        <v>1.185174696223962E-12</v>
+        <v>3.219712054650764E-13</v>
       </c>
       <c r="E13">
-        <v>4.983422562682514E-12</v>
+        <v>1.353824524739553E-12</v>
       </c>
       <c r="F13">
-        <v>1.345524091924279E-12</v>
+        <v>3.655326216796793E-13</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -679,16 +679,16 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>9.841546599143924E-12</v>
+        <v>2.844024302994738E-12</v>
       </c>
       <c r="D14">
-        <v>2.917469275327928E-12</v>
+        <v>8.430944708420957E-13</v>
       </c>
       <c r="E14">
-        <v>3.066843702224718E-12</v>
+        <v>8.862609077492111E-13</v>
       </c>
       <c r="F14">
-        <v>8.280477996006738E-13</v>
+        <v>2.39290445092287E-13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -739,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.02088787002422019</v>
+        <v>0.009542401001083108</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02603649009485581</v>
+        <v>0.01189449325650512</v>
       </c>
       <c r="F17">
-        <v>0.007029852325611068</v>
+        <v>0.003211513179256382</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -759,16 +759,16 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.00812494892938577</v>
+        <v>0.002310245342521586</v>
       </c>
       <c r="D18">
-        <v>2.408623610955845E-05</v>
+        <v>6.848672560848861E-06</v>
       </c>
       <c r="E18">
-        <v>0.01012765552810641</v>
+        <v>0.002879694287043307</v>
       </c>
       <c r="F18">
-        <v>0.002734466992588732</v>
+        <v>0.0007775174575016929</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -779,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.006417952103190794</v>
+        <v>0.001854667993104582</v>
       </c>
       <c r="D19">
-        <v>7.610259828523503E-05</v>
+        <v>2.199222601888045E-05</v>
       </c>
       <c r="E19">
-        <v>0.007999903588552921</v>
+        <v>0.002311822353151412</v>
       </c>
       <c r="F19">
-        <v>0.002159973968909289</v>
+        <v>0.0006241920353508812</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>7.189974648224594E-05</v>
+        <v>2.436143591642356E-07</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>8.038928683347986E-09</v>
+        <v>2.464427933841764E-11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>2.20472630967881E-11</v>
+        <v>5.964223951167562E-12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>1.665390737629724E-11</v>
+        <v>4.812670126678333E-12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.05389207490943491</v>
+        <v>0.02463056265127432</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.02097310638704786</v>
+        <v>0.005963309646617993</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.01665393225893824</v>
+        <v>0.004812674607625756</v>
       </c>
     </row>
     <row r="20" spans="1:3">
